--- a/statistics/HistoricalDistanceData/historical_distance/Q30973589-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q30973589-en.xlsx
@@ -31,525 +31,525 @@
     <t>uri</t>
   </si>
   <si>
+    <t>Social events</t>
+  </si>
+  <si>
+    <t>Eurovision Song Contest reconsidering Dutch event over coronavirus</t>
+  </si>
+  <si>
+    <t>Vasil Garvanliev will represent North Macedonia at Eurovision 2020</t>
+  </si>
+  <si>
+    <t>Canada: OMNI Television Confirms Eurovision 2020 Broadcast</t>
+  </si>
+  <si>
+    <t>Official EBU statement &amp; FAQ on Eurovision 2020 cancellation</t>
+  </si>
+  <si>
+    <t>Eurovision: Abba's Waterloo voted best song of all time</t>
+  </si>
+  <si>
+    <t>It’s Natalia Gordienko for Moldova</t>
+  </si>
+  <si>
+    <t>Eurovision Again: Why fans of the song contest get together every Saturday</t>
+  </si>
+  <si>
+    <t>Aksel Kankaanranta will represent Finland at the Eurovision Song Contest 2020</t>
+  </si>
+  <si>
+    <t>Yle's Eurovision Diaries documentary to premiere on April 6</t>
+  </si>
+  <si>
+    <t>Jon Ola Sand to miss Eurovision HoD Meet due to coronavirus travel ban</t>
+  </si>
+  <si>
+    <t>The votes are in: San Marino's Senhit will sing 'Freaky!' in Rotterdam</t>
+  </si>
+  <si>
+    <t>Eurovision 2020: Heads of Delegations meeting is over</t>
+  </si>
+  <si>
+    <t>New measures to stop spread of coronavirus in the Netherlands</t>
+  </si>
+  <si>
+    <t>Fans gather behind #EurovisionAgain</t>
+  </si>
+  <si>
+    <t>Intention to honour Eurovision 2020 songs and artists</t>
+  </si>
+  <si>
+    <t>馃嚜馃嚫 Eurovision-Spain postpones Madrid pre-party</t>
+  </si>
+  <si>
+    <t>Eurovision Home Concerts on YouTube</t>
+  </si>
+  <si>
+    <t>SBS is uniting music fans with Eurovision 2020: Big Night In!</t>
+  </si>
+  <si>
+    <t>Rotterdam returns as Eurovision Song Contest Host City in 2021</t>
+  </si>
+  <si>
+    <t>Alla leið! Iceland's RÚV announces alternative Eurovision 2020 show</t>
+  </si>
+  <si>
+    <t>Greece: Maria Kozakou &amp; Giorgos Kapoutzidis Confirmed As Commentators For Rotterdam</t>
+  </si>
+  <si>
+    <t>Eurovision Song Contest 2020 CD album release date</t>
+  </si>
+  <si>
+    <t>Eurovision'20: 15 Year Old Pieter Gabriel Will Produce Music For Flag Parade</t>
+  </si>
+  <si>
+    <t>Eurovision venue turned into Covid-19 hospital</t>
+  </si>
+  <si>
+    <t>Eurovision'20: Binnenrotte Revealed As Location Of The Eurovision Village</t>
+  </si>
+  <si>
+    <t>Eurovision 2020 CD release delayed until 15th May</t>
+  </si>
+  <si>
+    <t>"Eurovision: Europe Shine A Light": 46 broadcasters will air the official ESC replacement programme</t>
+  </si>
+  <si>
+    <t>NikkieTutorials online presenter of Eurovision 2020</t>
+  </si>
+  <si>
+    <t>Rotterdam 2020: First opening and interval acts revealed</t>
+  </si>
+  <si>
+    <t>Denmark to hold Eurovision selection party in empty arena due to coronavirus fears</t>
+  </si>
+  <si>
+    <t>Australia has decided: Montaigne is heading to the 2020 Eurovision Song Contest</t>
+  </si>
+  <si>
     <t>Israel: Israel Calling Cancelled Due to Coronavirus</t>
   </si>
   <si>
-    <t>Alla leið! Iceland's RÚV announces alternative Eurovision 2020 show</t>
-  </si>
-  <si>
-    <t>Eurovision Home Concerts on YouTube</t>
+    <t>Semi-Final Allocation Draw pots for Eurovision 2020 revealed!</t>
   </si>
   <si>
     <t>Get ready for the Eurovision Song Celebration 2020!</t>
   </si>
   <si>
-    <t>"Eurovision: Europe Shine A Light": 46 broadcasters will air the official ESC replacement programme</t>
-  </si>
-  <si>
-    <t>Official EBU statement &amp; FAQ on Eurovision 2020 cancellation</t>
-  </si>
-  <si>
-    <t>Fans gather behind #EurovisionAgain</t>
+    <t>Maja Keuc's "No One" is voted Slovenia's favourite Eurovision entry</t>
+  </si>
+  <si>
+    <t>ðŸ‡ªðŸ‡¸ Eurovision-Spain postpones Madrid pre-party</t>
+  </si>
+  <si>
+    <t>Eurovision month! BBC reveals extensive ESC programme schedule…with “Europe Shine A Light” on BBC One</t>
+  </si>
+  <si>
+    <t>AVROTROS reveals Dutch Eurovision week programming</t>
+  </si>
+  <si>
+    <t>TV Guide: Alternative Eurovision 2020 Schedule</t>
   </si>
   <si>
     <t>Stefania will represent Greece at Eurovision 2020 with "SUPERGIRL"</t>
   </si>
   <si>
-    <t>Social events</t>
-  </si>
-  <si>
-    <t>Yle's Eurovision Diaries documentary to premiere on April 6</t>
-  </si>
-  <si>
-    <t>Jon Ola Sand to miss Eurovision HoD Meet due to coronavirus travel ban</t>
-  </si>
-  <si>
-    <t>Rotterdam 2020: First opening and interval acts revealed</t>
-  </si>
-  <si>
-    <t>Eurovision Again: Why fans of the song contest get together every Saturday</t>
-  </si>
-  <si>
     <t>Bulgaria: VICTORIA Cancels Pre-Party Appearances</t>
   </si>
   <si>
-    <t>Eurovision: Abba's Waterloo voted best song of all time</t>
-  </si>
-  <si>
-    <t>Eurovision Song Contest reconsidering Dutch event over coronavirus</t>
-  </si>
-  <si>
-    <t>NikkieTutorials online presenter of Eurovision 2020</t>
-  </si>
-  <si>
-    <t>Eurovision 2020 CD release delayed until 15th May</t>
-  </si>
-  <si>
-    <t>Maja Keuc's "No One" is voted Slovenia's favourite Eurovision entry</t>
-  </si>
-  <si>
-    <t>Eurovision 2020: Heads of Delegations meeting is over</t>
-  </si>
-  <si>
-    <t>Greece: Maria Kozakou &amp; Giorgos Kapoutzidis Confirmed As Commentators For Rotterdam</t>
-  </si>
-  <si>
-    <t>ðŸ‡ªðŸ‡¸ Eurovision-Spain postpones Madrid pre-party</t>
-  </si>
-  <si>
-    <t>Denmark to hold Eurovision selection party in empty arena due to coronavirus fears</t>
-  </si>
-  <si>
-    <t>Eurovision'20: 15 Year Old Pieter Gabriel Will Produce Music For Flag Parade</t>
-  </si>
-  <si>
-    <t>Eurovision venue turned into Covid-19 hospital</t>
-  </si>
-  <si>
-    <t>Eurovision Song Contest 2020 CD album release date</t>
-  </si>
-  <si>
-    <t>Eurovision month! BBC reveals extensive ESC programme schedule…with “Europe Shine A Light” on BBC One</t>
-  </si>
-  <si>
-    <t>Semi-Final Allocation Draw pots for Eurovision 2020 revealed!</t>
-  </si>
-  <si>
-    <t>Intention to honour Eurovision 2020 songs and artists</t>
-  </si>
-  <si>
-    <t>The votes are in: San Marino's Senhit will sing 'Freaky!' in Rotterdam</t>
-  </si>
-  <si>
-    <t>AVROTROS reveals Dutch Eurovision week programming</t>
-  </si>
-  <si>
-    <t>SBS is uniting music fans with Eurovision 2020: Big Night In!</t>
-  </si>
-  <si>
-    <t>Rotterdam returns as Eurovision Song Contest Host City in 2021</t>
-  </si>
-  <si>
-    <t>Australia has decided: Montaigne is heading to the 2020 Eurovision Song Contest</t>
-  </si>
-  <si>
-    <t>It’s Natalia Gordienko for Moldova</t>
-  </si>
-  <si>
-    <t>Aksel Kankaanranta will represent Finland at the Eurovision Song Contest 2020</t>
-  </si>
-  <si>
-    <t>Eurovision'20: Binnenrotte Revealed As Location Of The Eurovision Village</t>
-  </si>
-  <si>
-    <t>Canada: OMNI Television Confirms Eurovision 2020 Broadcast</t>
-  </si>
-  <si>
-    <t>馃嚜馃嚫 Eurovision-Spain postpones Madrid pre-party</t>
-  </si>
-  <si>
-    <t>Vasil Garvanliev will represent North Macedonia at Eurovision 2020</t>
-  </si>
-  <si>
-    <t>TV Guide: Alternative Eurovision 2020 Schedule</t>
-  </si>
-  <si>
-    <t>New measures to stop spread of coronavirus in the Netherlands</t>
+    <t>Jon Ola Sand to step down as Executive Supervisor after Rotterdam 2020</t>
+  </si>
+  <si>
+    <t>Bosnia &amp; Herzegovina: No Eurovision Return in 2020</t>
+  </si>
+  <si>
+    <t>Bosnia &amp; Herzegovina's "primary goal" is Eurovision comeback but 2020 return "difficult"</t>
+  </si>
+  <si>
+    <t>Eurovision 2020: Rotterdam vs Maastricht; the final countdown begins</t>
+  </si>
+  <si>
+    <t>EurovisionInConcert on Twitter</t>
+  </si>
+  <si>
+    <t>Luxembourg: Anne-Marie David Pushing For Nations Eurovision Return</t>
+  </si>
+  <si>
+    <t>Four Core Team members for Eurovision 2020 announced</t>
+  </si>
+  <si>
+    <t>Slovakia: No Return to the Eurovision Song Contest in 2020</t>
+  </si>
+  <si>
+    <t>Coronavirus (COVID-19)</t>
+  </si>
+  <si>
+    <t>Hungary: A Dal Dropped As Eurovision Selection Process, Withdrawal Possible?</t>
+  </si>
+  <si>
+    <t>First Semi-Final of Rotterdam 2020</t>
+  </si>
+  <si>
+    <t>Eurovision'20: Cornald Maas Named Creative Advisor</t>
+  </si>
+  <si>
+    <t>Eurovision Eurovision 2020: Highlights from NPO's visit to Rotterdam</t>
+  </si>
+  <si>
+    <t>Eurovision'20: Reasons Behind Utrecht's Failed Bid To Host Revealed</t>
+  </si>
+  <si>
+    <t>The Netherlands: NPO will reveal ESC 2020 host city with a special two-minute broadcast</t>
+  </si>
+  <si>
+    <t>Second Semi-Final of Rotterdam 2020</t>
+  </si>
+  <si>
+    <t>Hihlights from NPO's visit to Maastricht</t>
+  </si>
+  <si>
+    <t>Liechtenstein: 1 FL TV will not debut in Eurovision 2020</t>
+  </si>
+  <si>
+    <t>Eurovision 2020: EBU releases official list of participating countries</t>
+  </si>
+  <si>
+    <t>Has ORF selected Vincent Bueno as Austria's act for Eurovision 2020?</t>
+  </si>
+  <si>
+    <t>ðŸ‡²ðŸ‡ª Montenegro withdraws from Eurovision Song Contest 2020</t>
+  </si>
+  <si>
+    <t>EBU: “No plans” to invite Kazakhstan to participate in Eurovision 2020</t>
+  </si>
+  <si>
+    <t>RTCG Director-General says no decision on Eurovision 2020</t>
+  </si>
+  <si>
+    <t>Montenegro: RTCG releases a statement regarding its Eurovision withdrawal</t>
+  </si>
+  <si>
+    <t>The Netherlands: Maastricht The Latest City To Gauge Potential Bid to Host Eurovision 2020</t>
+  </si>
+  <si>
+    <t>Kazakhstan: Eurovision Participation 'Needs To Be Discussed'</t>
+  </si>
+  <si>
+    <t>Rotterdam to host Eurovision 2020!</t>
+  </si>
+  <si>
+    <t>One down! Leeuwarden withdraws bid to host Eurovision 2020 due to ceiling height of venue</t>
+  </si>
+  <si>
+    <t>Grand Final of Rotterdam 2020</t>
+  </si>
+  <si>
+    <t>Andorra: RTVA Open To Co-operation With Catalan Broadcaster Regarding Eurovision Participation</t>
+  </si>
+  <si>
+    <t>Australia secures spot in Eurovision for the next five years</t>
+  </si>
+  <si>
+    <t>Andorra: RTVA Rules Out Eurovision Return in 2020</t>
+  </si>
+  <si>
+    <t>Eurovision 2020: Getty Kaspers sees Rotterdam as the ideal host city</t>
+  </si>
+  <si>
+    <t>No changes approved in EBU statutes: Kosovo cannot apply for full membership</t>
+  </si>
+  <si>
+    <t>Official Compilations Chart Top 100</t>
+  </si>
+  <si>
+    <t>2020 postcard concept revealed as Dutch people can join in on the fun</t>
+  </si>
+  <si>
+    <t>Andorra: Government Plans For RTVA's Return to Eurovision Song Contest</t>
+  </si>
+  <si>
+    <t>Monaco: TMC confirms non participation in Eurovision 2020</t>
+  </si>
+  <si>
+    <t>NPO to air special broadcast to announce Eurovision host city next week</t>
   </si>
   <si>
     <t>Montenegro: Eurovision 2020 Participation Confirmed</t>
   </si>
   <si>
-    <t>Liechtenstein: 1 FL TV will not debut in Eurovision 2020</t>
-  </si>
-  <si>
-    <t>Second Semi-Final of Rotterdam 2020</t>
-  </si>
-  <si>
-    <t>Slovakia: No Return to the Eurovision Song Contest in 2020</t>
-  </si>
-  <si>
-    <t>Montenegro: RTCG releases a statement regarding its Eurovision withdrawal</t>
-  </si>
-  <si>
-    <t>Bosnia &amp; Herzegovina: No Eurovision Return in 2020</t>
-  </si>
-  <si>
-    <t>First Semi-Final of Rotterdam 2020</t>
-  </si>
-  <si>
-    <t>Monaco: TMC confirms non participation in Eurovision 2020</t>
-  </si>
-  <si>
-    <t>Eurovision 2020: Rotterdam vs Maastricht; the final countdown begins</t>
-  </si>
-  <si>
-    <t>Andorra: RTVA Rules Out Eurovision Return in 2020</t>
+    <t>Hungary pulls out of Eurovision amid rise in anti-LGBTQ+ rhetoric</t>
+  </si>
+  <si>
+    <t>Highlights from NPO's visit to Rotterdam</t>
+  </si>
+  <si>
+    <t>Slogan revealed: ‘Open Up’ to Eurovision 2020</t>
+  </si>
+  <si>
+    <t>Luxembourg: RTL confirms non participation in Eurovision 2020</t>
+  </si>
+  <si>
+    <t>Rotterdam 2020</t>
   </si>
   <si>
     <t>Eurovision 2020: Euroclub venue in Rotterdam unveiled</t>
   </si>
   <si>
-    <t>Hungary pulls out of Eurovision amid rise in anti-LGBTQ+ rhetoric</t>
-  </si>
-  <si>
-    <t>Grand Final of Rotterdam 2020</t>
-  </si>
-  <si>
-    <t>2020 postcard concept revealed as Dutch people can join in on the fun</t>
-  </si>
-  <si>
-    <t>Andorra: RTVA Open To Co-operation With Catalan Broadcaster Regarding Eurovision Participation</t>
-  </si>
-  <si>
-    <t>Hungary: A Dal Dropped As Eurovision Selection Process, Withdrawal Possible?</t>
-  </si>
-  <si>
-    <t>Eurovision 2020: EBU releases official list of participating countries</t>
-  </si>
-  <si>
-    <t>EurovisionInConcert on Twitter</t>
-  </si>
-  <si>
-    <t>EBU: “No plans” to invite Kazakhstan to participate in Eurovision 2020</t>
-  </si>
-  <si>
-    <t>Hihlights from NPO's visit to Maastricht</t>
-  </si>
-  <si>
-    <t>The Netherlands: NPO will reveal ESC 2020 host city with a special two-minute broadcast</t>
-  </si>
-  <si>
-    <t>Has ORF selected Vincent Bueno as Austria's act for Eurovision 2020?</t>
-  </si>
-  <si>
     <t>Kosovo: RTK To Push for Full EBU Membership Next Week</t>
   </si>
   <si>
-    <t>Slogan revealed: ‘Open Up’ to Eurovision 2020</t>
-  </si>
-  <si>
-    <t>Eurovision'20: Reasons Behind Utrecht's Failed Bid To Host Revealed</t>
-  </si>
-  <si>
-    <t>RTCG Director-General says no decision on Eurovision 2020</t>
-  </si>
-  <si>
     <t>Turkey: TRT Will Not Compete in Eurovision 2020</t>
   </si>
   <si>
-    <t>Kazakhstan: Eurovision Participation 'Needs To Be Discussed'</t>
-  </si>
-  <si>
-    <t>The Netherlands: Maastricht The Latest City To Gauge Potential Bid to Host Eurovision 2020</t>
-  </si>
-  <si>
-    <t>Eurovision'20: Cornald Maas Named Creative Advisor</t>
-  </si>
-  <si>
-    <t>Coronavirus (COVID-19)</t>
-  </si>
-  <si>
-    <t>Rotterdam to host Eurovision 2020!</t>
-  </si>
-  <si>
-    <t>No changes approved in EBU statutes: Kosovo cannot apply for full membership</t>
-  </si>
-  <si>
-    <t>ðŸ‡²ðŸ‡ª Montenegro withdraws from Eurovision Song Contest 2020</t>
-  </si>
-  <si>
-    <t>Luxembourg: Anne-Marie David Pushing For Nations Eurovision Return</t>
-  </si>
-  <si>
-    <t>Rotterdam 2020</t>
-  </si>
-  <si>
-    <t>Bosnia &amp; Herzegovina's "primary goal" is Eurovision comeback but 2020 return "difficult"</t>
-  </si>
-  <si>
-    <t>Andorra: Government Plans For RTVA's Return to Eurovision Song Contest</t>
-  </si>
-  <si>
-    <t>Australia secures spot in Eurovision for the next five years</t>
-  </si>
-  <si>
-    <t>Jon Ola Sand to step down as Executive Supervisor after Rotterdam 2020</t>
-  </si>
-  <si>
-    <t>NPO to air special broadcast to announce Eurovision host city next week</t>
-  </si>
-  <si>
-    <t>Eurovision Eurovision 2020: Highlights from NPO's visit to Rotterdam</t>
-  </si>
-  <si>
-    <t>Luxembourg: RTL confirms non participation in Eurovision 2020</t>
-  </si>
-  <si>
-    <t>Eurovision 2020: Getty Kaspers sees Rotterdam as the ideal host city</t>
-  </si>
-  <si>
-    <t>Highlights from NPO's visit to Rotterdam</t>
-  </si>
-  <si>
-    <t>Official Compilations Chart Top 100</t>
-  </si>
-  <si>
-    <t>One down! Leeuwarden withdraws bid to host Eurovision 2020 due to ceiling height of venue</t>
-  </si>
-  <si>
-    <t>Four Core Team members for Eurovision 2020 announced</t>
+    <t>2020-03-02T11:24:33UTC</t>
+  </si>
+  <si>
+    <t>2020-03-06T10:16:18UTC</t>
+  </si>
+  <si>
+    <t>2020-01-15T16:43:58UTC</t>
+  </si>
+  <si>
+    <t>2020-02-11T20:08:41UTC</t>
+  </si>
+  <si>
+    <t>2020-03-18T10:36:49UTC</t>
+  </si>
+  <si>
+    <t>2020-05-16T22:55:22UTC</t>
+  </si>
+  <si>
+    <t>2020-02-29T21:37:34UTC</t>
+  </si>
+  <si>
+    <t>2020-04-25T00:41:36UTC</t>
+  </si>
+  <si>
+    <t>2020-03-07T23:40:08UTC</t>
+  </si>
+  <si>
+    <t>2020-04-04T16:30:15UTC</t>
+  </si>
+  <si>
+    <t>2020-03-03T22:14:48UTC</t>
+  </si>
+  <si>
+    <t>2020-03-09T13:00:00UTC</t>
+  </si>
+  <si>
+    <t>2020-03-10T13:30:51UTC</t>
+  </si>
+  <si>
+    <t>2020-03-12T00:00:00UTC</t>
+  </si>
+  <si>
+    <t>2020-04-04T18:45:00UTC</t>
+  </si>
+  <si>
+    <t>2020-03-20T19:30:00UTC</t>
+  </si>
+  <si>
+    <t>2020-03-13T17:27:44UTC</t>
+  </si>
+  <si>
+    <t>2020-03-27T15:20:00UTC</t>
+  </si>
+  <si>
+    <t>2020-04-16T00:00:00UTC</t>
+  </si>
+  <si>
+    <t>2020-05-16T20:57:22UTC</t>
+  </si>
+  <si>
+    <t>2020-04-18T21:32:01UTC</t>
+  </si>
+  <si>
+    <t>2020-02-12T10:56:43UTC</t>
+  </si>
+  <si>
+    <t>2020-03-26T19:48:39UTC</t>
+  </si>
+  <si>
+    <t>2020-01-18T13:52:29UTC</t>
+  </si>
+  <si>
+    <t>2020-04-17T14:51:47UTC</t>
+  </si>
+  <si>
+    <t>2020-01-28T18:48:08UTC</t>
+  </si>
+  <si>
+    <t>2020-04-17T16:26:11UTC</t>
+  </si>
+  <si>
+    <t>2020-04-16T11:39:50UTC</t>
+  </si>
+  <si>
+    <t>2020-02-10T16:59:59UTC</t>
+  </si>
+  <si>
+    <t>2020-02-19T22:19:51UTC</t>
+  </si>
+  <si>
+    <t>2020-03-06T12:42:28UTC</t>
+  </si>
+  <si>
+    <t>2020-02-09T00:00:00UTC</t>
   </si>
   <si>
     <t>2020-03-13T20:51:51UTC</t>
   </si>
   <si>
-    <t>2020-04-18T21:32:01UTC</t>
-  </si>
-  <si>
-    <t>2020-03-27T15:20:00UTC</t>
+    <t>2020-01-25T08:00:00UTC</t>
   </si>
   <si>
     <t>2020-05-11T08:45:00UTC</t>
   </si>
   <si>
-    <t>2020-04-16T11:39:50UTC</t>
-  </si>
-  <si>
-    <t>2020-03-18T10:36:49UTC</t>
-  </si>
-  <si>
-    <t>2020-04-04T18:45:00UTC</t>
+    <t>2020-05-18T10:01:33UTC</t>
+  </si>
+  <si>
+    <t>2020-05-01T09:26:21UTC</t>
+  </si>
+  <si>
+    <t>2020-03-25T22:08:22UTC</t>
+  </si>
+  <si>
+    <t>2020-05-10T08:43:19UTC</t>
   </si>
   <si>
     <t>2020-02-03T19:40:17UTC</t>
   </si>
   <si>
-    <t>2020-03-02T11:24:33UTC</t>
-  </si>
-  <si>
-    <t>2020-04-04T16:30:15UTC</t>
-  </si>
-  <si>
-    <t>2020-03-03T22:14:48UTC</t>
-  </si>
-  <si>
-    <t>2020-02-19T22:19:51UTC</t>
-  </si>
-  <si>
-    <t>2020-04-25T00:41:36UTC</t>
-  </si>
-  <si>
     <t>2020-03-15T14:12:54UTC</t>
   </si>
   <si>
-    <t>2020-05-16T22:55:22UTC</t>
-  </si>
-  <si>
-    <t>2020-03-06T10:16:18UTC</t>
-  </si>
-  <si>
-    <t>2020-02-10T16:59:59UTC</t>
-  </si>
-  <si>
-    <t>2020-04-17T16:26:11UTC</t>
-  </si>
-  <si>
-    <t>2020-05-18T10:01:33UTC</t>
-  </si>
-  <si>
-    <t>2020-03-10T13:30:51UTC</t>
-  </si>
-  <si>
-    <t>2020-02-12T10:56:43UTC</t>
-  </si>
-  <si>
-    <t>2020-03-13T17:27:44UTC</t>
-  </si>
-  <si>
-    <t>2020-03-06T12:42:28UTC</t>
-  </si>
-  <si>
-    <t>2020-01-18T13:52:29UTC</t>
-  </si>
-  <si>
-    <t>2020-04-17T14:51:47UTC</t>
-  </si>
-  <si>
-    <t>2020-03-26T19:48:39UTC</t>
-  </si>
-  <si>
-    <t>2020-05-01T09:26:21UTC</t>
-  </si>
-  <si>
-    <t>2020-01-25T08:00:00UTC</t>
-  </si>
-  <si>
-    <t>2020-03-20T19:30:00UTC</t>
-  </si>
-  <si>
-    <t>2020-03-09T13:00:00UTC</t>
-  </si>
-  <si>
-    <t>2020-03-25T22:08:22UTC</t>
-  </si>
-  <si>
-    <t>2020-04-16T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2020-05-16T20:57:22UTC</t>
-  </si>
-  <si>
-    <t>2020-02-09T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2020-02-29T21:37:34UTC</t>
-  </si>
-  <si>
-    <t>2020-03-07T23:40:08UTC</t>
-  </si>
-  <si>
-    <t>2020-01-28T18:48:08UTC</t>
-  </si>
-  <si>
-    <t>2020-02-11T20:08:41UTC</t>
-  </si>
-  <si>
-    <t>2020-01-15T16:43:58UTC</t>
-  </si>
-  <si>
-    <t>2020-05-10T08:43:19UTC</t>
-  </si>
-  <si>
-    <t>2020-03-12T00:00:00UTC</t>
+    <t>2019-09-30T10:00:58UTC</t>
+  </si>
+  <si>
+    <t>2019-07-09T17:34:22UTC</t>
+  </si>
+  <si>
+    <t>2018-12-28T23:21:47UTC</t>
+  </si>
+  <si>
+    <t>2019-08-05T16:00:20UTC</t>
+  </si>
+  <si>
+    <t>2021-03-15T00:00:00UTC</t>
+  </si>
+  <si>
+    <t>2019-05-29T18:25:41UTC</t>
+  </si>
+  <si>
+    <t>2019-07-05T11:48:51UTC</t>
+  </si>
+  <si>
+    <t>2019-06-05T14:02:23UTC</t>
+  </si>
+  <si>
+    <t>1-01-01T00:00:00UTC</t>
+  </si>
+  <si>
+    <t>2019-10-25T18:46:19UTC</t>
+  </si>
+  <si>
+    <t>2019-08-31T19:22:15UTC</t>
+  </si>
+  <si>
+    <t>2019-07-19T09:02:13UTC</t>
+  </si>
+  <si>
+    <t>2019-07-17T19:05:38UTC</t>
+  </si>
+  <si>
+    <t>2019-08-24T20:14:22UTC</t>
+  </si>
+  <si>
+    <t>2019-07-17T18:20:28UTC</t>
+  </si>
+  <si>
+    <t>2019-08-07T10:15:00UTC</t>
+  </si>
+  <si>
+    <t>2019-11-13T15:22:20UTC</t>
+  </si>
+  <si>
+    <t>2019-12-01T00:40:52UTC</t>
+  </si>
+  <si>
+    <t>2019-11-08T10:40:54UTC</t>
+  </si>
+  <si>
+    <t>2019-09-06T15:28:48UTC</t>
+  </si>
+  <si>
+    <t>2019-11-09T11:07:57UTC</t>
+  </si>
+  <si>
+    <t>2019-11-15T17:00:27UTC</t>
+  </si>
+  <si>
+    <t>2019-04-15T19:20:23UTC</t>
+  </si>
+  <si>
+    <t>2018-11-22T16:32:29UTC</t>
+  </si>
+  <si>
+    <t>2019-08-30T10:00:01UTC</t>
+  </si>
+  <si>
+    <t>2019-06-18T15:30:40UTC</t>
+  </si>
+  <si>
+    <t>2019-03-18T17:33:33UTC</t>
+  </si>
+  <si>
+    <t>2019-02-12T22:00:00UTC</t>
+  </si>
+  <si>
+    <t>2019-05-22T20:32:12UTC</t>
+  </si>
+  <si>
+    <t>2019-06-18T11:30:07UTC</t>
+  </si>
+  <si>
+    <t>2019-06-28T13:07:44UTC</t>
+  </si>
+  <si>
+    <t>2019-12-09T15:00:00UTC</t>
+  </si>
+  <si>
+    <t>2019-11-20T18:58:23UTC</t>
+  </si>
+  <si>
+    <t>2019-08-06T08:40:59UTC</t>
+  </si>
+  <si>
+    <t>2019-08-23T14:48:43UTC</t>
   </si>
   <si>
     <t>2019-09-24T16:48:56UTC</t>
   </si>
   <si>
-    <t>2019-08-07T10:15:00UTC</t>
-  </si>
-  <si>
-    <t>1-01-01T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2019-06-05T14:02:23UTC</t>
-  </si>
-  <si>
-    <t>2019-11-15T17:00:27UTC</t>
-  </si>
-  <si>
-    <t>2019-07-09T17:34:22UTC</t>
-  </si>
-  <si>
-    <t>2019-08-06T08:40:59UTC</t>
-  </si>
-  <si>
-    <t>2019-08-05T16:00:20UTC</t>
-  </si>
-  <si>
-    <t>2019-05-22T20:32:12UTC</t>
+    <t>2019-11-27T15:05:58UTC</t>
+  </si>
+  <si>
+    <t>2019-10-24T17:38:24UTC</t>
+  </si>
+  <si>
+    <t>2019-07-23T09:50:47UTC</t>
   </si>
   <si>
     <t>2019-11-20T14:30:30UTC</t>
   </si>
   <si>
-    <t>2019-11-27T15:05:58UTC</t>
-  </si>
-  <si>
-    <t>2019-12-09T15:00:00UTC</t>
-  </si>
-  <si>
-    <t>2019-03-18T17:33:33UTC</t>
-  </si>
-  <si>
-    <t>2019-10-25T18:46:19UTC</t>
-  </si>
-  <si>
-    <t>2019-11-13T15:22:20UTC</t>
-  </si>
-  <si>
-    <t>2021-03-15T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2019-09-06T15:28:48UTC</t>
-  </si>
-  <si>
-    <t>2019-07-17T18:20:28UTC</t>
-  </si>
-  <si>
-    <t>2019-08-24T20:14:22UTC</t>
-  </si>
-  <si>
-    <t>2019-12-01T00:40:52UTC</t>
-  </si>
-  <si>
     <t>2018-06-22T17:39:45UTC</t>
   </si>
   <si>
-    <t>2019-10-24T17:38:24UTC</t>
-  </si>
-  <si>
-    <t>2019-07-17T19:05:38UTC</t>
-  </si>
-  <si>
-    <t>2019-11-09T11:07:57UTC</t>
-  </si>
-  <si>
     <t>2019-09-22T18:08:44UTC</t>
   </si>
   <si>
-    <t>2018-11-22T16:32:29UTC</t>
-  </si>
-  <si>
-    <t>2019-04-15T19:20:23UTC</t>
-  </si>
-  <si>
-    <t>2019-08-31T19:22:15UTC</t>
-  </si>
-  <si>
-    <t>2019-08-30T10:00:01UTC</t>
-  </si>
-  <si>
-    <t>2019-06-28T13:07:44UTC</t>
-  </si>
-  <si>
-    <t>2019-11-08T10:40:54UTC</t>
-  </si>
-  <si>
-    <t>2019-05-29T18:25:41UTC</t>
-  </si>
-  <si>
-    <t>2018-12-28T23:21:47UTC</t>
-  </si>
-  <si>
-    <t>2019-11-20T18:58:23UTC</t>
-  </si>
-  <si>
-    <t>2019-02-12T22:00:00UTC</t>
-  </si>
-  <si>
-    <t>2019-09-30T10:00:58UTC</t>
-  </si>
-  <si>
-    <t>2019-08-23T14:48:43UTC</t>
-  </si>
-  <si>
-    <t>2019-07-19T09:02:13UTC</t>
-  </si>
-  <si>
-    <t>2019-07-23T09:50:47UTC</t>
-  </si>
-  <si>
-    <t>2019-06-18T11:30:07UTC</t>
-  </si>
-  <si>
-    <t>2019-06-18T15:30:40UTC</t>
-  </si>
-  <si>
-    <t>2019-07-05T11:48:51UTC</t>
-  </si>
-  <si>
     <t>unknown</t>
   </si>
   <si>
@@ -559,274 +559,274 @@
     <t>day_2_to_30</t>
   </si>
   <si>
+    <t>https://eurovision.tv/social-events</t>
+  </si>
+  <si>
+    <t>https://www.reuters.com/article/us-health-coronavirus-netherlands-idUSKBN20T18D</t>
+  </si>
+  <si>
+    <t>https://wiwibloggs.com/2020/01/15/confirmed-vasil-garvanliev-north-macedonia-eurovision-2020/247732/</t>
+  </si>
+  <si>
+    <t>https://eurovoix.com/2020/02/11/canada-omni-television-confirms-eurovision-2020-broadcast/</t>
+  </si>
+  <si>
+    <t>https://eurovision.tv/official-ebu-statement-and-faq-eurovision-song-contest-2020-cancellation</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20200606132129/https://www.bbc.co.uk/news/entertainment-arts-52615403</t>
+  </si>
+  <si>
+    <t>https://eurovision.tv/story/it-s-natalia-gordienko-for-moldova</t>
+  </si>
+  <si>
+    <t>https://www.bbc.com/news/newsbeat-52381023</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20200516100747/https://yle.fi/aihe/artikkeli/2020/03/07/aksel-kankaanranta-will-represent-finland-at-the-eurovision-song-contest-2020</t>
+  </si>
+  <si>
+    <t>https://wiwibloggs.com/2020/04/04/yles-eurovision-diaries-documentary-to-premiere-on-april-6th/252972/</t>
+  </si>
+  <si>
+    <t>https://wiwibloggs.com/2020/03/03/coronavirus-and-eurovision-new-ebu-travel-restrictions-ban-jon-ola-sand-from-heads-of-delegation-meeting-as-israel-pulls-out/251297/</t>
+  </si>
+  <si>
+    <t>https://eurovision.tv/story/senhit-to-represent-san-marino-again</t>
+  </si>
+  <si>
+    <t>https://eurovisionfun.com/en/2020/03/eurovision-2020-heads-of-delegations-meeting-is-over/</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20200413021513/https://www.government.nl/latest/news/2020/03/12/new-measures-to-stop-spread-of-coronavirus-in-the-netherlands</t>
+  </si>
+  <si>
+    <t>https://eurovision.tv/story/fans-gather-behind-eurovision-again</t>
+  </si>
+  <si>
+    <t>https://eurovision.tv/story/intention-to-honour-eurovision-2020-songs-artists</t>
+  </si>
+  <si>
+    <t>https://escxtra.com/2020/03/13/%F0%9F%87%AA%F0%9F%87%B8-eurovision-spain-postpones-madrid-pre-party/</t>
+  </si>
+  <si>
+    <t>https://eurovision.tv/story/eurovision-home-concerts-on-youtube</t>
+  </si>
+  <si>
+    <t>https://www.sbs.com.au/programs/eurovision/article/2020/04/16/sbs-uniting-music-fans-eurovision-2020-big-night</t>
+  </si>
+  <si>
+    <t>https://eurovision.tv/story/eurovision-song-contest-to-return-to-rotterdam-in-2021</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20200422170251/https://wiwibloggs.com/2020/04/18/alla-leid-icelands-ruv-announces-alternative-eurovision-2020-show/253526/</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20200215144952/https://eurovoix.com/2020/02/12/greece-maria-kozakou-giorgos-kapoutzidis-confirmed-as-commentators-for-rotterdam/</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20200328113104/https://wiwibloggs.com/2020/03/26/eurovision-song-contest-2020-cd-album-8-may/252567/</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20200123060919/https://eurovoix.com/2020/01/18/eurovision20-15-year-old-pieter-gabriel-will-produce-music-for-eurovision-opening-act/</t>
+  </si>
+  <si>
+    <t>https://www.bbc.com/news/av/world-europe-52325536/eurovision-venue-turned-into-covid-19-hospital</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20200128201126/https://eurovoix.com/2020/01/28/eurovision20-binnenrotte-revealed-as-location-of-the-eurovision-village/</t>
+  </si>
+  <si>
+    <t>https://escxtra.com/2020/04/17/eurovision-2020-cd-delayed/</t>
+  </si>
+  <si>
+    <t>https://wiwibloggs.com/2020/04/16/eurovision-europe-shine-a-light-confirms-46-broadcasters-will-air-the-official-esc-replacement-programme/253465/</t>
+  </si>
+  <si>
+    <t>https://eurovision.tv/story/nikkietutorials-online-presenter-of-eurovision-2020</t>
+  </si>
+  <si>
+    <t>https://eurovision.tv/story/first-eurovision-2020-opening-and-interval-acts-announced</t>
+  </si>
+  <si>
+    <t>https://www.reuters.com/article/us-health-coronavirus-denmark-idUSKBN20T1O1</t>
+  </si>
+  <si>
+    <t>https://www.sbs.com.au/programs/eurovision/article/2020/02/09/australia-has-decided-montaigne-heading-2020-eurovision-song-contest</t>
+  </si>
+  <si>
     <t>https://eurovoix.com/2020/03/13/israel-israel-calling-cancelled-due-to-coronavirus/</t>
   </si>
   <si>
-    <t>https://web.archive.org/web/20200422170251/https://wiwibloggs.com/2020/04/18/alla-leid-icelands-ruv-announces-alternative-eurovision-2020-show/253526/</t>
-  </si>
-  <si>
-    <t>https://eurovision.tv/story/eurovision-home-concerts-on-youtube</t>
+    <t>https://eurovision.tv/story/semi-final-allocation-draw-pots-for-eurovision-2020-revealed</t>
   </si>
   <si>
     <t>https://eurovision.tv/story/eurovision-song-celebration</t>
   </si>
   <si>
-    <t>https://wiwibloggs.com/2020/04/16/eurovision-europe-shine-a-light-confirms-46-broadcasters-will-air-the-official-esc-replacement-programme/253465/</t>
-  </si>
-  <si>
-    <t>https://eurovision.tv/official-ebu-statement-and-faq-eurovision-song-contest-2020-cancellation</t>
-  </si>
-  <si>
-    <t>https://eurovision.tv/story/fans-gather-behind-eurovision-again</t>
+    <t>https://wiwibloggs.com/2020/05/18/maja-keuc-no-one-is-voted-slovenias-favourite-eurovision-entry/254534/</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20200323170749/https://escxtra.com/2020/03/13/%F0%9F%87%AA%F0%9F%87%B8-eurovision-spain-postpones-madrid-pre-party/</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20200502081947/https://wiwibloggs.com/2020/05/01/eurovision-month-bbc-reveals-extensive-esc-programme-schedule-with-europe-shine-a-light-on-bbc-one/253833/</t>
+  </si>
+  <si>
+    <t>https://wiwibloggs.com/2020/03/25/netherlands-avrotros-will-re-broadcast-its-de-beste-zangers-eurovision-2019-special-on-may-16/252480/</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20200515040834/https://wiwibloggs.com/2020/05/10/tv-guide-alternative-eurovision-2020-schedule/254133/</t>
   </si>
   <si>
     <t>https://wiwibloggs.com/2020/02/03/confirmed-stefania-represent-greece-eurovision-2020-supergirl/249074/</t>
   </si>
   <si>
-    <t>https://eurovision.tv/social-events</t>
-  </si>
-  <si>
-    <t>https://wiwibloggs.com/2020/04/04/yles-eurovision-diaries-documentary-to-premiere-on-april-6th/252972/</t>
-  </si>
-  <si>
-    <t>https://wiwibloggs.com/2020/03/03/coronavirus-and-eurovision-new-ebu-travel-restrictions-ban-jon-ola-sand-from-heads-of-delegation-meeting-as-israel-pulls-out/251297/</t>
-  </si>
-  <si>
-    <t>https://eurovision.tv/story/first-eurovision-2020-opening-and-interval-acts-announced</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/news/newsbeat-52381023</t>
-  </si>
-  <si>
     <t>https://eurovoix.com/2020/03/15/bulgaria-victoria-cancels-pre-party-appearances/</t>
   </si>
   <si>
-    <t>https://web.archive.org/web/20200606132129/https://www.bbc.co.uk/news/entertainment-arts-52615403</t>
-  </si>
-  <si>
-    <t>https://www.reuters.com/article/us-health-coronavirus-netherlands-idUSKBN20T18D</t>
-  </si>
-  <si>
-    <t>https://eurovision.tv/story/nikkietutorials-online-presenter-of-eurovision-2020</t>
-  </si>
-  <si>
-    <t>https://escxtra.com/2020/04/17/eurovision-2020-cd-delayed/</t>
-  </si>
-  <si>
-    <t>https://wiwibloggs.com/2020/05/18/maja-keuc-no-one-is-voted-slovenias-favourite-eurovision-entry/254534/</t>
-  </si>
-  <si>
-    <t>https://eurovisionfun.com/en/2020/03/eurovision-2020-heads-of-delegations-meeting-is-over/</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/20200215144952/https://eurovoix.com/2020/02/12/greece-maria-kozakou-giorgos-kapoutzidis-confirmed-as-commentators-for-rotterdam/</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/20200323170749/https://escxtra.com/2020/03/13/%F0%9F%87%AA%F0%9F%87%B8-eurovision-spain-postpones-madrid-pre-party/</t>
-  </si>
-  <si>
-    <t>https://www.reuters.com/article/us-health-coronavirus-denmark-idUSKBN20T1O1</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/20200123060919/https://eurovoix.com/2020/01/18/eurovision20-15-year-old-pieter-gabriel-will-produce-music-for-eurovision-opening-act/</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/news/av/world-europe-52325536/eurovision-venue-turned-into-covid-19-hospital</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/20200328113104/https://wiwibloggs.com/2020/03/26/eurovision-song-contest-2020-cd-album-8-may/252567/</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/20200502081947/https://wiwibloggs.com/2020/05/01/eurovision-month-bbc-reveals-extensive-esc-programme-schedule-with-europe-shine-a-light-on-bbc-one/253833/</t>
-  </si>
-  <si>
-    <t>https://eurovision.tv/story/semi-final-allocation-draw-pots-for-eurovision-2020-revealed</t>
-  </si>
-  <si>
-    <t>https://eurovision.tv/story/intention-to-honour-eurovision-2020-songs-artists</t>
-  </si>
-  <si>
-    <t>https://eurovision.tv/story/senhit-to-represent-san-marino-again</t>
-  </si>
-  <si>
-    <t>https://wiwibloggs.com/2020/03/25/netherlands-avrotros-will-re-broadcast-its-de-beste-zangers-eurovision-2019-special-on-may-16/252480/</t>
-  </si>
-  <si>
-    <t>https://www.sbs.com.au/programs/eurovision/article/2020/04/16/sbs-uniting-music-fans-eurovision-2020-big-night</t>
-  </si>
-  <si>
-    <t>https://eurovision.tv/story/eurovision-song-contest-to-return-to-rotterdam-in-2021</t>
-  </si>
-  <si>
-    <t>https://www.sbs.com.au/programs/eurovision/article/2020/02/09/australia-has-decided-montaigne-heading-2020-eurovision-song-contest</t>
-  </si>
-  <si>
-    <t>https://eurovision.tv/story/it-s-natalia-gordienko-for-moldova</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/20200516100747/https://yle.fi/aihe/artikkeli/2020/03/07/aksel-kankaanranta-will-represent-finland-at-the-eurovision-song-contest-2020</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/20200128201126/https://eurovoix.com/2020/01/28/eurovision20-binnenrotte-revealed-as-location-of-the-eurovision-village/</t>
-  </si>
-  <si>
-    <t>https://eurovoix.com/2020/02/11/canada-omni-television-confirms-eurovision-2020-broadcast/</t>
-  </si>
-  <si>
-    <t>https://escxtra.com/2020/03/13/%F0%9F%87%AA%F0%9F%87%B8-eurovision-spain-postpones-madrid-pre-party/</t>
-  </si>
-  <si>
-    <t>https://wiwibloggs.com/2020/01/15/confirmed-vasil-garvanliev-north-macedonia-eurovision-2020/247732/</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/20200515040834/https://wiwibloggs.com/2020/05/10/tv-guide-alternative-eurovision-2020-schedule/254133/</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/20200413021513/https://www.government.nl/latest/news/2020/03/12/new-measures-to-stop-spread-of-coronavirus-in-the-netherlands</t>
+    <t>https://eurovision.tv/story/jon-ola-sand-to-step-down-as-executive-supervisor-after-rotterdam-2020</t>
+  </si>
+  <si>
+    <t>https://eurovoix.com/2019/07/09/bosnia-herzegovina-eurovision-2020/</t>
+  </si>
+  <si>
+    <t>https://www.escxtra.com/2018/12/29/bosnia-2020-eurovision-difficult/</t>
+  </si>
+  <si>
+    <t>http://esctoday.com/177070/eurovision-2020-rotterdam-vs-maastricht-the-final-countdown-begins/</t>
+  </si>
+  <si>
+    <t>https://twitter.com/ESCinConcert/status/1239301426129653760/photo/1</t>
+  </si>
+  <si>
+    <t>https://eurovoix.com/2019/05/29/luxembourg-anne-marie-david-pushing-for-nations-eurovision-return/</t>
+  </si>
+  <si>
+    <t>https://escxtra.com/2019/07/05/four-core-team-members-for-eurovision-2020-announced/</t>
+  </si>
+  <si>
+    <t>https://eurovoix.com/2019/06/05/slovakia-eurovision-song-contest-2020/</t>
+  </si>
+  <si>
+    <t>https://www.ahoy.nl/nieuws/algemeen/corona-virus-covid-19</t>
+  </si>
+  <si>
+    <t>https://eurovoix.com/2019/10/25/hungary-withdraws-from-the-eurovision-song-contest/</t>
+  </si>
+  <si>
+    <t>https://eurovision.tv/event/rotterdam-2020/first-semi-final</t>
+  </si>
+  <si>
+    <t>https://eurovoix.com/2019/08/31/eurovision20-cornald-maas-named-creative-advisor/</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20190719091205/http://esctoday.com/176894/eurovision-2020-highlights-from-npos-visit-to-rotterdam/</t>
+  </si>
+  <si>
+    <t>https://eurovoix.com/2019/07/17/eurovision20-reasons-behind-utrechts-failed-bid-to-host-revealed/</t>
+  </si>
+  <si>
+    <t>https://wiwibloggs.com/2019/08/24/the-netherlands-npo-will-reveal-esc-2020-host-city-with-a-special-two-minute-broadcast/241716/</t>
+  </si>
+  <si>
+    <t>https://eurovision.tv/event/rotterdam-2020/second-semi-final</t>
+  </si>
+  <si>
+    <t>http://esctoday.com/176883/eurovision-2020-highlights-from-npos-visit-to-maastricht/</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20190807131118/http://esctoday.com/177028/liechtenstein-1-fl-tv-will-not-debut-in-eurovision-2020/</t>
+  </si>
+  <si>
+    <t>http://esctoday.com/177459/eurovision-2020-ebu-releases-official-list-of-participating-countries/</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20191203151948/https://wiwibloggs.com/2019/12/01/orf-vincent-bueno-austrias-act-eurovision-2020/246055/</t>
+  </si>
+  <si>
+    <t>https://escxtra.com/2019/11/08/%F0%9F%87%B2%F0%9F%87%AA-montenegro-withdraws-from-eurovision-song-contest-2020/</t>
+  </si>
+  <si>
+    <t>https://escxtra.com/2019/09/06/ebu-no-plans-to-invite-kazakhstan-to-participate-in-eurovision-2020/</t>
+  </si>
+  <si>
+    <t>https://wiwibloggs.com/2019/11/09/montenegro-director-general-no-decision-eurovision-2020/245069/</t>
+  </si>
+  <si>
+    <t>http://esctoday.com/177952/montenegro-rtcg-releases-a-statement-regarding-its-eurovision-withdrawal</t>
+  </si>
+  <si>
+    <t>https://eurovoix.com/2019/04/15/the-netherlands-maastricht-the-latest-city-to-gauge-potential-bid-to-host-eurovision-2020/</t>
+  </si>
+  <si>
+    <t>https://eurovoix.com/2018/11/22/kazakhstan-eurovision-participation-needs-to-be-discussed/</t>
+  </si>
+  <si>
+    <t>https://eurovision.tv/story/rotterdam-to-host-eurovision-2020</t>
+  </si>
+  <si>
+    <t>https://wiwibloggs.com/2019/06/18/one-down-leeuwarden-withdraws-bid-to-host-eurovision-2020-due-to-ceiling-height-of-venue/240004/</t>
+  </si>
+  <si>
+    <t>https://eurovision.tv/event/rotterdam-2020/grand-final</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20190418045345/https://eurovoix.com/2019/03/18/andorra-rtva-open-to-co-operation-with-catalan-broadcaster-regarding-eurovision-participation/</t>
+  </si>
+  <si>
+    <t>https://eurovision.tv/story/australia-secures-spot-in-eurovision-until-2023</t>
+  </si>
+  <si>
+    <t>https://eurovoix.com/2019/05/22/andorra-rtva-rules-out-eurovision-return-in-2020/</t>
+  </si>
+  <si>
+    <t>http://esctoday.com/176389/eurovision-2020-getty-kaspers-sees-rotterdam-as-the-ideal-host-city/</t>
+  </si>
+  <si>
+    <t>https://escxtra.com/2019/06/28/no-changes-approved-in-ebu-statutes-kosovo-cannot-apply-for-full-membership/</t>
+  </si>
+  <si>
+    <t>https://www.officialcharts.com/charts/official-compilations-chart/20200522/7503/</t>
+  </si>
+  <si>
+    <t>https://eurovision.tv/story/eurovision-2020-postcards-concept-revealed</t>
+  </si>
+  <si>
+    <t>https://eurovoix.com/2019/11/20/andorra-rtva-to-return-to-the-eurovision-song-contest/</t>
+  </si>
+  <si>
+    <t>http://esctoday.com/176986/monaco-tmc-confirms-non-participation-in-eurovision-2020/</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20190824140145/https://escxtra.com/2019/08/23/npo-city-next-week-eurovision/</t>
   </si>
   <si>
     <t>https://eurovoix.com/2019/09/24/montenegro-eurovision-2020-participation-confirmed/</t>
   </si>
   <si>
-    <t>https://web.archive.org/web/20190807131118/http://esctoday.com/177028/liechtenstein-1-fl-tv-will-not-debut-in-eurovision-2020/</t>
-  </si>
-  <si>
-    <t>https://eurovision.tv/event/rotterdam-2020/second-semi-final</t>
-  </si>
-  <si>
-    <t>https://eurovoix.com/2019/06/05/slovakia-eurovision-song-contest-2020/</t>
-  </si>
-  <si>
-    <t>http://esctoday.com/177952/montenegro-rtcg-releases-a-statement-regarding-its-eurovision-withdrawal</t>
-  </si>
-  <si>
-    <t>https://eurovoix.com/2019/07/09/bosnia-herzegovina-eurovision-2020/</t>
-  </si>
-  <si>
-    <t>https://eurovision.tv/event/rotterdam-2020/first-semi-final</t>
-  </si>
-  <si>
-    <t>http://esctoday.com/176986/monaco-tmc-confirms-non-participation-in-eurovision-2020/</t>
-  </si>
-  <si>
-    <t>http://esctoday.com/177070/eurovision-2020-rotterdam-vs-maastricht-the-final-countdown-begins/</t>
-  </si>
-  <si>
-    <t>https://eurovoix.com/2019/05/22/andorra-rtva-rules-out-eurovision-return-in-2020/</t>
+    <t>https://web.archive.org/web/20191128122945/https://www.theguardian.com/tv-and-radio/2019/nov/27/hungary-pulls-out-of-eurovision-amid-rise-in-anti-lgbt-rhetoric</t>
+  </si>
+  <si>
+    <t>http://esctoday.com/176894/eurovision-2020-highlights-from-npos-visit-to-rotterdam/</t>
+  </si>
+  <si>
+    <t>https://eurovision.tv/story/open-up-slogan-eurovision-2020</t>
+  </si>
+  <si>
+    <t>http://esctoday.com/176967/luxembourg-rtl-confirms-non-participation-in-eurovision-2020/</t>
+  </si>
+  <si>
+    <t>https://eurovision.tv/event/rotterdam-2020</t>
   </si>
   <si>
     <t>http://esctoday.com/177272/eurovision-2020-euroclub-venue-in-rotterdam-unveiled/</t>
   </si>
   <si>
-    <t>https://web.archive.org/web/20191128122945/https://www.theguardian.com/tv-and-radio/2019/nov/27/hungary-pulls-out-of-eurovision-amid-rise-in-anti-lgbt-rhetoric</t>
-  </si>
-  <si>
-    <t>https://eurovision.tv/event/rotterdam-2020/grand-final</t>
-  </si>
-  <si>
-    <t>https://eurovision.tv/story/eurovision-2020-postcards-concept-revealed</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/20190418045345/https://eurovoix.com/2019/03/18/andorra-rtva-open-to-co-operation-with-catalan-broadcaster-regarding-eurovision-participation/</t>
-  </si>
-  <si>
-    <t>https://eurovoix.com/2019/10/25/hungary-withdraws-from-the-eurovision-song-contest/</t>
-  </si>
-  <si>
-    <t>http://esctoday.com/177459/eurovision-2020-ebu-releases-official-list-of-participating-countries/</t>
-  </si>
-  <si>
-    <t>https://twitter.com/ESCinConcert/status/1239301426129653760/photo/1</t>
-  </si>
-  <si>
-    <t>https://escxtra.com/2019/09/06/ebu-no-plans-to-invite-kazakhstan-to-participate-in-eurovision-2020/</t>
-  </si>
-  <si>
-    <t>http://esctoday.com/176883/eurovision-2020-highlights-from-npos-visit-to-maastricht/</t>
-  </si>
-  <si>
-    <t>https://wiwibloggs.com/2019/08/24/the-netherlands-npo-will-reveal-esc-2020-host-city-with-a-special-two-minute-broadcast/241716/</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/20191203151948/https://wiwibloggs.com/2019/12/01/orf-vincent-bueno-austrias-act-eurovision-2020/246055/</t>
-  </si>
-  <si>
     <t>https://eurovoix.com/2018/06/22/kosovo-rtk-to-push-for-full-ebu-membership-next-week/</t>
   </si>
   <si>
-    <t>https://eurovision.tv/story/open-up-slogan-eurovision-2020</t>
-  </si>
-  <si>
-    <t>https://eurovoix.com/2019/07/17/eurovision20-reasons-behind-utrechts-failed-bid-to-host-revealed/</t>
-  </si>
-  <si>
-    <t>https://wiwibloggs.com/2019/11/09/montenegro-director-general-no-decision-eurovision-2020/245069/</t>
-  </si>
-  <si>
     <t>https://eurovoix.com/2019/09/22/turkey-trt-will-not-compete-in-eurovision-2020/</t>
-  </si>
-  <si>
-    <t>https://eurovoix.com/2018/11/22/kazakhstan-eurovision-participation-needs-to-be-discussed/</t>
-  </si>
-  <si>
-    <t>https://eurovoix.com/2019/04/15/the-netherlands-maastricht-the-latest-city-to-gauge-potential-bid-to-host-eurovision-2020/</t>
-  </si>
-  <si>
-    <t>https://eurovoix.com/2019/08/31/eurovision20-cornald-maas-named-creative-advisor/</t>
-  </si>
-  <si>
-    <t>https://www.ahoy.nl/nieuws/algemeen/corona-virus-covid-19</t>
-  </si>
-  <si>
-    <t>https://eurovision.tv/story/rotterdam-to-host-eurovision-2020</t>
-  </si>
-  <si>
-    <t>https://escxtra.com/2019/06/28/no-changes-approved-in-ebu-statutes-kosovo-cannot-apply-for-full-membership/</t>
-  </si>
-  <si>
-    <t>https://escxtra.com/2019/11/08/%F0%9F%87%B2%F0%9F%87%AA-montenegro-withdraws-from-eurovision-song-contest-2020/</t>
-  </si>
-  <si>
-    <t>https://eurovoix.com/2019/05/29/luxembourg-anne-marie-david-pushing-for-nations-eurovision-return/</t>
-  </si>
-  <si>
-    <t>https://eurovision.tv/event/rotterdam-2020</t>
-  </si>
-  <si>
-    <t>https://www.escxtra.com/2018/12/29/bosnia-2020-eurovision-difficult/</t>
-  </si>
-  <si>
-    <t>https://eurovoix.com/2019/11/20/andorra-rtva-to-return-to-the-eurovision-song-contest/</t>
-  </si>
-  <si>
-    <t>https://eurovision.tv/story/australia-secures-spot-in-eurovision-until-2023</t>
-  </si>
-  <si>
-    <t>https://eurovision.tv/story/jon-ola-sand-to-step-down-as-executive-supervisor-after-rotterdam-2020</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/20190824140145/https://escxtra.com/2019/08/23/npo-city-next-week-eurovision/</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/20190719091205/http://esctoday.com/176894/eurovision-2020-highlights-from-npos-visit-to-rotterdam/</t>
-  </si>
-  <si>
-    <t>http://esctoday.com/176967/luxembourg-rtl-confirms-non-participation-in-eurovision-2020/</t>
-  </si>
-  <si>
-    <t>http://esctoday.com/176389/eurovision-2020-getty-kaspers-sees-rotterdam-as-the-ideal-host-city/</t>
-  </si>
-  <si>
-    <t>http://esctoday.com/176894/eurovision-2020-highlights-from-npos-visit-to-rotterdam/</t>
-  </si>
-  <si>
-    <t>https://www.officialcharts.com/charts/official-compilations-chart/20200522/7503/</t>
-  </si>
-  <si>
-    <t>https://wiwibloggs.com/2019/06/18/one-down-leeuwarden-withdraws-bid-to-host-eurovision-2020-due-to-ceiling-height-of-venue/240004/</t>
-  </si>
-  <si>
-    <t>https://escxtra.com/2019/07/05/four-core-team-members-for-eurovision-2020-announced/</t>
   </si>
 </sst>
 </file>
@@ -1228,7 +1228,7 @@
         <v>95</v>
       </c>
       <c r="C2">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
         <v>179</v>
@@ -1245,7 +1245,7 @@
         <v>96</v>
       </c>
       <c r="C3">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
         <v>179</v>
@@ -1262,10 +1262,10 @@
         <v>97</v>
       </c>
       <c r="C4">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>183</v>
@@ -1279,7 +1279,7 @@
         <v>98</v>
       </c>
       <c r="C5">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
         <v>179</v>
@@ -1296,7 +1296,7 @@
         <v>99</v>
       </c>
       <c r="C6">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
         <v>179</v>
@@ -1313,7 +1313,7 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="D7" t="s">
         <v>179</v>
@@ -1330,7 +1330,7 @@
         <v>101</v>
       </c>
       <c r="C8">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
         <v>179</v>
@@ -1347,7 +1347,7 @@
         <v>102</v>
       </c>
       <c r="C9">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="D9" t="s">
         <v>179</v>
@@ -1364,7 +1364,7 @@
         <v>103</v>
       </c>
       <c r="C10">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D10" t="s">
         <v>179</v>
@@ -1415,7 +1415,7 @@
         <v>106</v>
       </c>
       <c r="C13">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
         <v>179</v>
@@ -1432,7 +1432,7 @@
         <v>107</v>
       </c>
       <c r="C14">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="D14" t="s">
         <v>179</v>
@@ -1449,7 +1449,7 @@
         <v>108</v>
       </c>
       <c r="C15">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D15" t="s">
         <v>179</v>
@@ -1466,7 +1466,7 @@
         <v>109</v>
       </c>
       <c r="C16">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="D16" t="s">
         <v>179</v>
@@ -1483,7 +1483,7 @@
         <v>110</v>
       </c>
       <c r="C17">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
         <v>179</v>
@@ -1500,7 +1500,7 @@
         <v>111</v>
       </c>
       <c r="C18">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="D18" t="s">
         <v>179</v>
@@ -1517,7 +1517,7 @@
         <v>112</v>
       </c>
       <c r="C19">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="D19" t="s">
         <v>179</v>
@@ -1534,7 +1534,7 @@
         <v>113</v>
       </c>
       <c r="C20">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="D20" t="s">
         <v>179</v>
@@ -1551,7 +1551,7 @@
         <v>114</v>
       </c>
       <c r="C21">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="D21" t="s">
         <v>179</v>
@@ -1568,7 +1568,7 @@
         <v>115</v>
       </c>
       <c r="C22">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="D22" t="s">
         <v>179</v>
@@ -1585,7 +1585,7 @@
         <v>116</v>
       </c>
       <c r="C23">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
         <v>179</v>
@@ -1602,7 +1602,7 @@
         <v>117</v>
       </c>
       <c r="C24">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="D24" t="s">
         <v>179</v>
@@ -1653,10 +1653,10 @@
         <v>120</v>
       </c>
       <c r="C27">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>206</v>
@@ -1670,7 +1670,7 @@
         <v>121</v>
       </c>
       <c r="C28">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D28" t="s">
         <v>179</v>
@@ -1687,10 +1687,10 @@
         <v>122</v>
       </c>
       <c r="C29">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="D29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>208</v>
@@ -1704,7 +1704,7 @@
         <v>123</v>
       </c>
       <c r="C30">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="D30" t="s">
         <v>179</v>
@@ -1721,7 +1721,7 @@
         <v>124</v>
       </c>
       <c r="C31">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="D31" t="s">
         <v>179</v>
@@ -1738,7 +1738,7 @@
         <v>125</v>
       </c>
       <c r="C32">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D32" t="s">
         <v>179</v>
@@ -1755,7 +1755,7 @@
         <v>126</v>
       </c>
       <c r="C33">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="D33" t="s">
         <v>179</v>
@@ -1772,7 +1772,7 @@
         <v>127</v>
       </c>
       <c r="C34">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="D34" t="s">
         <v>179</v>
@@ -1789,10 +1789,10 @@
         <v>128</v>
       </c>
       <c r="C35">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D35" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>214</v>
@@ -1806,7 +1806,7 @@
         <v>129</v>
       </c>
       <c r="C36">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c r="D36" t="s">
         <v>179</v>
@@ -1823,7 +1823,7 @@
         <v>130</v>
       </c>
       <c r="C37">
-        <v>66</v>
+        <v>138</v>
       </c>
       <c r="D37" t="s">
         <v>179</v>
@@ -1837,13 +1837,13 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="C38">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="D38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>217</v>
@@ -1854,10 +1854,10 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C39">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="D39" t="s">
         <v>179</v>
@@ -1871,10 +1871,10 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="C40">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D40" t="s">
         <v>179</v>
@@ -1891,10 +1891,10 @@
         <v>133</v>
       </c>
       <c r="C41">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="D41" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>220</v>
@@ -1908,7 +1908,7 @@
         <v>134</v>
       </c>
       <c r="C42">
-        <v>130</v>
+        <v>33</v>
       </c>
       <c r="D42" t="s">
         <v>179</v>
@@ -1925,7 +1925,7 @@
         <v>135</v>
       </c>
       <c r="C43">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D43" t="s">
         <v>179</v>
@@ -2041,7 +2041,7 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C50" t="s">
         <v>178</v>
@@ -2058,7 +2058,7 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C51" t="s">
         <v>178</v>
@@ -2075,7 +2075,7 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C52" t="s">
         <v>178</v>
@@ -2092,7 +2092,7 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C53" t="s">
         <v>178</v>
@@ -2109,7 +2109,7 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C54" t="s">
         <v>178</v>
@@ -2143,7 +2143,7 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C56" t="s">
         <v>178</v>
@@ -2160,7 +2160,7 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C57" t="s">
         <v>178</v>
@@ -2177,7 +2177,7 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C58" t="s">
         <v>178</v>
@@ -2194,7 +2194,7 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C59" t="s">
         <v>178</v>
@@ -2415,7 +2415,7 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="C72" t="s">
         <v>178</v>
@@ -2432,7 +2432,7 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C73" t="s">
         <v>178</v>
@@ -2449,7 +2449,7 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="C74" t="s">
         <v>178</v>
@@ -2517,7 +2517,7 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="C78" t="s">
         <v>178</v>
@@ -2534,7 +2534,7 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="C79" t="s">
         <v>178</v>
@@ -2636,7 +2636,7 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="C85" t="s">
         <v>178</v>
@@ -2653,7 +2653,7 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C86" t="s">
         <v>178</v>
@@ -2670,7 +2670,7 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C87" t="s">
         <v>178</v>
@@ -2687,7 +2687,7 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="C88" t="s">
         <v>178</v>
@@ -2704,7 +2704,7 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="C89" t="s">
         <v>178</v>
